--- a/Avalia_Pesquisa/Pendencias.xlsx
+++ b/Avalia_Pesquisa/Pendencias.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbereza/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbereza/Projects/iohangp/Avalia_Pesquisa.git/Avalia_Pesquisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844129A5-CE50-BE4C-8E1B-01DC9A32595E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EB2BF13-1D71-AA43-BA58-C8904468F3F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15960" xr2:uid="{FB125EC7-5926-7941-BB5E-5DD7D6CCEDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="page88" localSheetId="1">Planilha2!$A$47</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>Atividade</t>
   </si>
@@ -85,13 +89,283 @@
   </si>
   <si>
     <t>Planejamento plantio - Ttratamento de sementes</t>
+  </si>
+  <si>
+    <t>Icone</t>
+  </si>
+  <si>
+    <t>Obervacoes</t>
+  </si>
+  <si>
+    <t>Exportar informacoes</t>
+  </si>
+  <si>
+    <t>Exportar formato ARM</t>
+  </si>
+  <si>
+    <t>Informar manualmente o cód estudo</t>
+  </si>
+  <si>
+    <t>Mostrar campo tratamento na avaliação</t>
+  </si>
+  <si>
+    <t>Sincronizacao manutencao</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Visualizar e Editar Avaliacoes e log de modificacoes</t>
+  </si>
+  <si>
+    <t>Visualizar e Editar Aplicacoes e log de modificacoes</t>
+  </si>
+  <si>
+    <t>Visualizar e Editar plantio e log de modificacoes</t>
+  </si>
+  <si>
+    <t>Visualizar e Editar Instalacao e log de modificacoes</t>
+  </si>
+  <si>
+    <t>Visualizar e Editar Manutencoes e log de modificacoes</t>
+  </si>
+  <si>
+    <t>Gerar QR code esta gerando apenas pro primeiro item</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Herbicida</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>nicossulfurom (sulfoniluréia)</t>
+  </si>
+  <si>
+    <t>40 g/L</t>
+  </si>
+  <si>
+    <t>Adama Brasil S/A - Londrina</t>
+  </si>
+  <si>
+    <t>Fungicida</t>
+  </si>
+  <si>
+    <t>FMC Química do Brasil Ltda. -</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>240 g/L</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>cletodim (oxima</t>
+  </si>
+  <si>
+    <t>Arysta Lifescience do Brasil Industria</t>
+  </si>
+  <si>
+    <t>ciclohexanodiona)</t>
+  </si>
+  <si>
+    <t>Química e Agropecuária Ltda. – São</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Lorsban 480 BR</t>
+  </si>
+  <si>
+    <t>clorpirifós (organofosforado)</t>
+  </si>
+  <si>
+    <t>480 g/L</t>
+  </si>
+  <si>
+    <t>Acaricida/Inseticida</t>
+  </si>
+  <si>
+    <t>Dow Agrosciences Industrial Ltda. -</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Lotus 40 SC</t>
+  </si>
+  <si>
+    <t>Cropchem Ltda</t>
+  </si>
+  <si>
+    <t>Loyalty</t>
+  </si>
+  <si>
+    <t>Flufenpir-etílico (piridazinona)</t>
+  </si>
+  <si>
+    <t>400 g/L</t>
+  </si>
+  <si>
+    <t>Sumitomo Chemical do Brasil</t>
+  </si>
+  <si>
+    <t>Representações Ltda.</t>
+  </si>
+  <si>
+    <t>Lucens</t>
+  </si>
+  <si>
+    <t>metolacloro (cloroacetanilida)</t>
+  </si>
+  <si>
+    <t>353,8 g/L</t>
+  </si>
+  <si>
+    <t>Syngenta Proteção de Cultivos Ltda.</t>
+  </si>
+  <si>
+    <t>– São Paulo</t>
+  </si>
+  <si>
+    <t>Lumica</t>
+  </si>
+  <si>
+    <t>Mesotriona (Tricetona)</t>
+  </si>
+  <si>
+    <t>9008 Luretape BW-10</t>
+  </si>
+  <si>
+    <t>16112 Macromip Max</t>
+  </si>
+  <si>
+    <t>grandlure (I, II, III e IV) (álcool</t>
+  </si>
+  <si>
+    <t>15,14 g/kg</t>
+  </si>
+  <si>
+    <t>Feromônio</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Bio Controle - Métodos de Controle</t>
+  </si>
+  <si>
+    <t>alifático)</t>
+  </si>
+  <si>
+    <t>de Pragas Ltda.</t>
+  </si>
+  <si>
+    <t>Phytoseiulus macropilis</t>
+  </si>
+  <si>
+    <t>100000 áca</t>
+  </si>
+  <si>
+    <t>Agente Biológico de</t>
+  </si>
+  <si>
+    <t>PROMIP - Comercio, Pesquisas e</t>
+  </si>
+  <si>
+    <t>(biológico)</t>
+  </si>
+  <si>
+    <t>Controle</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Agentes</t>
+  </si>
+  <si>
+    <t>Biologicos Ltda</t>
+  </si>
+  <si>
+    <t>Mademato</t>
+  </si>
+  <si>
+    <t>glifosato (glicina substituída)</t>
+  </si>
+  <si>
+    <t>Industria Quimica Dipil Ltda</t>
+  </si>
+  <si>
+    <t>Magister</t>
+  </si>
+  <si>
+    <t>clomazona (isoxazolidinona)</t>
+  </si>
+  <si>
+    <t>500 g/L</t>
+  </si>
+  <si>
+    <t>Magnate 500 EC</t>
+  </si>
+  <si>
+    <t>imazalil (imidazol)</t>
+  </si>
+  <si>
+    <t>Magnific</t>
+  </si>
+  <si>
+    <t>acefato (organofosforado)</t>
+  </si>
+  <si>
+    <t>750 g/kg</t>
+  </si>
+  <si>
+    <t>Magnusbr</t>
+  </si>
+  <si>
+    <t>hexazinona (triazinona)</t>
+  </si>
+  <si>
+    <t>800 g/kg</t>
+  </si>
+  <si>
+    <t>Ouro Fino Química Ltda.- Uberaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ajustar sincronizacao do campo codigo.Estudo</t>
+  </si>
+  <si>
+    <t>permitir sempre 1 avaliacao a mais que o planejamento</t>
+  </si>
+  <si>
+    <t>emitir alerta de avaliacoes antecipadas</t>
+  </si>
+  <si>
+    <t>emitir alerta de aplicacoes antecipadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +378,12 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,14 +416,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,21 +753,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D955F51C-6B2B-594E-AE3D-40DA78147457}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,13 +776,19 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -495,8 +797,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,8 +809,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -515,8 +821,10 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -525,8 +833,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,8 +845,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -545,8 +857,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -555,8 +869,10 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -565,8 +881,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -575,8 +893,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -585,8 +905,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -595,8 +917,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -605,8 +929,10 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -615,6 +941,624 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9124F8FD-02B4-1A4B-B24A-5C0A6064031B}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1">
+        <v>6610</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>2298596</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>10113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>8104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>1513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>12512</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>11006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>6208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>3498</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>3610</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>

--- a/Avalia_Pesquisa/Pendencias.xlsx
+++ b/Avalia_Pesquisa/Pendencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbereza/Projects/iohangp/Avalia_Pesquisa.git/Avalia_Pesquisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EB2BF13-1D71-AA43-BA58-C8904468F3F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97948B66-6803-0245-A959-F4415CDF6A57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15960" xr2:uid="{FB125EC7-5926-7941-BB5E-5DD7D6CCEDD3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
   <si>
     <t>Atividade</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Cadastro de produto N para 1 estudo</t>
   </si>
   <si>
-    <t>Cadastro de localidade N para 1 estudo</t>
-  </si>
-  <si>
     <t>Validacao instalacao se e a localidade correta</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t xml:space="preserve">Planejamento aplicacao </t>
   </si>
   <si>
-    <t>Planejamento plantio - Ttratamento de sementes</t>
-  </si>
-  <si>
     <t>Icone</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Gerar QR code esta gerando apenas pro primeiro item</t>
   </si>
   <si>
-    <t>ALTA</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -359,6 +350,27 @@
   </si>
   <si>
     <t>emitir alerta de aplicacoes antecipadas</t>
+  </si>
+  <si>
+    <t>testar manualmente</t>
+  </si>
+  <si>
+    <t>parcial</t>
+  </si>
+  <si>
+    <t>Planejamento plantio - Tratamento de sementes</t>
+  </si>
+  <si>
+    <t>baixa</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>Ajustado</t>
   </si>
 </sst>
 </file>
@@ -431,12 +443,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -753,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D955F51C-6B2B-594E-AE3D-40DA78147457}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -765,7 +776,7 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -773,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -784,8 +795,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -793,10 +804,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -805,118 +818,140 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -925,202 +960,242 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>
@@ -1142,38 +1217,38 @@
         <v>6610</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="I3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1181,30 +1256,30 @@
         <v>2298596</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="I5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1212,25 +1287,25 @@
         <v>10113</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1238,30 +1313,30 @@
         <v>8104</v>
       </c>
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="I9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1269,30 +1344,30 @@
         <v>1513</v>
       </c>
       <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="I11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1300,119 +1375,119 @@
         <v>12512</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="I13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="F27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1420,25 +1495,25 @@
         <v>11006</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1446,30 +1521,30 @@
         <v>6208</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="H33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1477,25 +1552,25 @@
         <v>3498</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
         <v>39</v>
-      </c>
-      <c r="H34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1503,35 +1578,35 @@
         <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="H37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="H38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1539,25 +1614,25 @@
         <v>3610</v>
       </c>
       <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
